--- a/data/output/FV2410_FV2404/UTILMD/44147.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44147.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="377">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4587" uniqueCount="377">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1245,6 +1245,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U199" totalsRowShown="0">
+  <autoFilter ref="A1:U199"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1534,7 +1564,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11242,5 +11275,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/44147.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/44147.xlsx
@@ -2252,7 +2252,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2614,7 +2614,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4790,7 +4790,7 @@
         <v>364</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4952,7 +4952,7 @@
         <v>364</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5356,7 +5356,7 @@
         <v>366</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6290,7 +6290,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7474,7 +7474,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7930,7 +7930,7 @@
         <v>367</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8074,7 +8074,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8220,7 +8220,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8376,7 +8376,7 @@
         <v>367</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8524,7 +8524,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9192,7 +9192,7 @@
         <v>368</v>
       </c>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9342,7 +9342,7 @@
         <v>369</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9940,7 +9940,7 @@
         <v>372</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10352,7 +10352,7 @@
         <v>373</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10710,7 +10710,7 @@
         <v>374</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10910,7 +10910,7 @@
         <v>375</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11212,7 +11212,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11358,7 +11358,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11888,7 +11888,7 @@
         <v>376</v>
       </c>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12178,7 +12178,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12338,7 +12338,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N197" s="2"/>
